--- a/utils/service-test-suite/src/test/resources/oauth-data.xlsx
+++ b/utils/service-test-suite/src/test/resources/oauth-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somnath\Documents\git-ws\mywork\utils\service-test-suite\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65A764-B4EC-4767-93D4-1832ECBADCD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -36,15 +42,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>https://ssgosgdev.isus.emc.com/dev/cpeldap/api/persons?ntid=upadhs5</t>
-  </si>
-  <si>
     <t>l7xxc26a2c0585c94a32a54a0f6e22139765</t>
   </si>
   <si>
-    <t>https://ssgosgdev.isus.emc.com/dev/cpeldap/api/persons?ntid=rudram1</t>
-  </si>
-  <si>
     <t>contentType</t>
   </si>
   <si>
@@ -57,25 +57,25 @@
     <t>tokenurl</t>
   </si>
   <si>
-    <t>https://ssgosgdev.isus.emc.com/auth/oauth/v2/token</t>
-  </si>
-  <si>
     <t>b8d35632422945c58866ee8aefc222cd</t>
   </si>
   <si>
     <t>OAUTH001</t>
   </si>
   <si>
-    <t>OAUTH002</t>
-  </si>
-  <si>
     <t>jsonHeader</t>
+  </si>
+  <si>
+    <t>https://myorgdev.domain.com/dev/cpeldap/api/persons?ntid=somnath</t>
+  </si>
+  <si>
+    <t>https://myorgdev.domain.com/auth/oauth/v2/token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +117,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -164,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,26 +445,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="50.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -449,27 +487,27 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -481,35 +519,6 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -519,24 +528,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
